--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.029909</v>
+        <v>3.607366</v>
       </c>
       <c r="H2">
-        <v>12.089727</v>
+        <v>10.822098</v>
       </c>
       <c r="I2">
-        <v>0.1172342245207114</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="J2">
-        <v>0.1172342245207114</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.175664333333334</v>
+        <v>12.89086466666667</v>
       </c>
       <c r="N2">
-        <v>9.526993000000001</v>
+        <v>38.672594</v>
       </c>
       <c r="O2">
-        <v>0.04211436624069607</v>
+        <v>0.1338453503859769</v>
       </c>
       <c r="P2">
-        <v>0.04211436624069607</v>
+        <v>0.1338453503859769</v>
       </c>
       <c r="Q2">
-        <v>12.797638277879</v>
+        <v>46.50206690913468</v>
       </c>
       <c r="R2">
-        <v>115.178744500911</v>
+        <v>418.5186021822121</v>
       </c>
       <c r="S2">
-        <v>0.00493724506740923</v>
+        <v>0.011709952449433</v>
       </c>
       <c r="T2">
-        <v>0.004937245067409231</v>
+        <v>0.01170995244943301</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.029909</v>
+        <v>3.607366</v>
       </c>
       <c r="H3">
-        <v>12.089727</v>
+        <v>10.822098</v>
       </c>
       <c r="I3">
-        <v>0.1172342245207114</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="J3">
-        <v>0.1172342245207114</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>19.658112</v>
       </c>
       <c r="N3">
-        <v>58.97433599999999</v>
+        <v>58.974336</v>
       </c>
       <c r="O3">
-        <v>0.2606978702625127</v>
+        <v>0.2041094183053852</v>
       </c>
       <c r="P3">
-        <v>0.2606978702625127</v>
+        <v>0.2041094183053853</v>
       </c>
       <c r="Q3">
-        <v>79.220402471808</v>
+        <v>70.91400485299201</v>
       </c>
       <c r="R3">
-        <v>712.9836222462719</v>
+        <v>638.226043676928</v>
       </c>
       <c r="S3">
-        <v>0.0305627126544267</v>
+        <v>0.01785726269866678</v>
       </c>
       <c r="T3">
-        <v>0.0305627126544267</v>
+        <v>0.01785726269866679</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.029909</v>
+        <v>3.607366</v>
       </c>
       <c r="H4">
-        <v>12.089727</v>
+        <v>10.822098</v>
       </c>
       <c r="I4">
-        <v>0.1172342245207114</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="J4">
-        <v>0.1172342245207114</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.985787333333333</v>
+        <v>16.656836</v>
       </c>
       <c r="N4">
-        <v>29.957362</v>
+        <v>49.970508</v>
       </c>
       <c r="O4">
-        <v>0.1324274422027088</v>
+        <v>0.1729472854141944</v>
       </c>
       <c r="P4">
-        <v>0.1324274422027088</v>
+        <v>0.1729472854141944</v>
       </c>
       <c r="Q4">
-        <v>40.241814246686</v>
+        <v>60.08730385397601</v>
       </c>
       <c r="R4">
-        <v>362.176328220174</v>
+        <v>540.7857346857841</v>
       </c>
       <c r="S4">
-        <v>0.01552502849189589</v>
+        <v>0.01513092896106249</v>
       </c>
       <c r="T4">
-        <v>0.01552502849189589</v>
+        <v>0.01513092896106249</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.029909</v>
+        <v>3.607366</v>
       </c>
       <c r="H5">
-        <v>12.089727</v>
+        <v>10.822098</v>
       </c>
       <c r="I5">
-        <v>0.1172342245207114</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="J5">
-        <v>0.1172342245207114</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.366118</v>
+        <v>24.40542633333333</v>
       </c>
       <c r="N5">
-        <v>70.098354</v>
+        <v>73.216279</v>
       </c>
       <c r="O5">
-        <v>0.309871934746458</v>
+        <v>0.2534005998333714</v>
       </c>
       <c r="P5">
-        <v>0.309871934746458</v>
+        <v>0.2534005998333715</v>
       </c>
       <c r="Q5">
-        <v>94.163329223262</v>
+        <v>88.03930517037135</v>
       </c>
       <c r="R5">
-        <v>847.469963009358</v>
+        <v>792.353746533342</v>
       </c>
       <c r="S5">
-        <v>0.03632759597073348</v>
+        <v>0.02216968289260399</v>
       </c>
       <c r="T5">
-        <v>0.03632759597073348</v>
+        <v>0.022169682892604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.029909</v>
+        <v>3.607366</v>
       </c>
       <c r="H6">
-        <v>12.089727</v>
+        <v>10.822098</v>
       </c>
       <c r="I6">
-        <v>0.1172342245207114</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="J6">
-        <v>0.1172342245207114</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.480710666666667</v>
+        <v>9.584614333333333</v>
       </c>
       <c r="N6">
-        <v>25.442132</v>
+        <v>28.753843</v>
       </c>
       <c r="O6">
-        <v>0.112467728798807</v>
+        <v>0.09951668076049845</v>
       </c>
       <c r="P6">
-        <v>0.1124677287988071</v>
+        <v>0.09951668076049851</v>
       </c>
       <c r="Q6">
-        <v>34.176492241996</v>
+        <v>34.57521186917933</v>
       </c>
       <c r="R6">
-        <v>307.588430177964</v>
+        <v>311.176906822614</v>
       </c>
       <c r="S6">
-        <v>0.01318506696933382</v>
+        <v>0.00870658260649549</v>
       </c>
       <c r="T6">
-        <v>0.01318506696933382</v>
+        <v>0.008706582606495495</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.029909</v>
+        <v>3.607366</v>
       </c>
       <c r="H7">
-        <v>12.089727</v>
+        <v>10.822098</v>
       </c>
       <c r="I7">
-        <v>0.1172342245207114</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="J7">
-        <v>0.1172342245207114</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.739333</v>
+        <v>13.11578266666667</v>
       </c>
       <c r="N7">
-        <v>32.217999</v>
+        <v>39.347348</v>
       </c>
       <c r="O7">
-        <v>0.1424206577488174</v>
+        <v>0.1361806653005735</v>
       </c>
       <c r="P7">
-        <v>0.1424206577488175</v>
+        <v>0.1361806653005735</v>
       </c>
       <c r="Q7">
-        <v>43.278534710697</v>
+        <v>47.31342845512268</v>
       </c>
       <c r="R7">
-        <v>389.506812396273</v>
+        <v>425.8208560961041</v>
       </c>
       <c r="S7">
-        <v>0.01669657536691226</v>
+        <v>0.01191426605857607</v>
       </c>
       <c r="T7">
-        <v>0.01669657536691226</v>
+        <v>0.01191426605857608</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>11.036521</v>
       </c>
       <c r="I8">
-        <v>0.1070212735855447</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="J8">
-        <v>0.1070212735855447</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.175664333333334</v>
+        <v>12.89086466666667</v>
       </c>
       <c r="N8">
-        <v>9.526993000000001</v>
+        <v>38.672594</v>
       </c>
       <c r="O8">
-        <v>0.04211436624069607</v>
+        <v>0.1338453503859769</v>
       </c>
       <c r="P8">
-        <v>0.04211436624069607</v>
+        <v>0.1338453503859769</v>
       </c>
       <c r="Q8">
-        <v>11.68276203459478</v>
+        <v>47.42343286727489</v>
       </c>
       <c r="R8">
-        <v>105.144858311353</v>
+        <v>426.810895805474</v>
       </c>
       <c r="S8">
-        <v>0.00450713311132736</v>
+        <v>0.01194196690116544</v>
       </c>
       <c r="T8">
-        <v>0.00450713311132736</v>
+        <v>0.01194196690116545</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>11.036521</v>
       </c>
       <c r="I9">
-        <v>0.1070212735855447</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="J9">
-        <v>0.1070212735855447</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>19.658112</v>
       </c>
       <c r="N9">
-        <v>58.97433599999999</v>
+        <v>58.974336</v>
       </c>
       <c r="O9">
-        <v>0.2606978702625127</v>
+        <v>0.2041094183053852</v>
       </c>
       <c r="P9">
-        <v>0.2606978702625127</v>
+        <v>0.2041094183053853</v>
       </c>
       <c r="Q9">
         <v>72.31905530278399</v>
       </c>
       <c r="R9">
-        <v>650.871497725056</v>
+        <v>650.8714977250561</v>
       </c>
       <c r="S9">
-        <v>0.0279002180965332</v>
+        <v>0.01821107651920658</v>
       </c>
       <c r="T9">
-        <v>0.0279002180965332</v>
+        <v>0.01821107651920659</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>11.036521</v>
       </c>
       <c r="I10">
-        <v>0.1070212735855447</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="J10">
-        <v>0.1070212735855447</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.985787333333333</v>
+        <v>16.656836</v>
       </c>
       <c r="N10">
-        <v>29.957362</v>
+        <v>49.970508</v>
       </c>
       <c r="O10">
-        <v>0.1324274422027088</v>
+        <v>0.1729472854141944</v>
       </c>
       <c r="P10">
-        <v>0.1324274422027088</v>
+        <v>0.1729472854141944</v>
       </c>
       <c r="Q10">
-        <v>36.73611720195578</v>
+        <v>61.27784010251867</v>
       </c>
       <c r="R10">
-        <v>330.6250548176019</v>
+        <v>551.500560922668</v>
       </c>
       <c r="S10">
-        <v>0.01417255352221</v>
+        <v>0.01543072472900119</v>
       </c>
       <c r="T10">
-        <v>0.01417255352221</v>
+        <v>0.01543072472900119</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>11.036521</v>
       </c>
       <c r="I11">
-        <v>0.1070212735855447</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="J11">
-        <v>0.1070212735855447</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.366118</v>
+        <v>24.40542633333333</v>
       </c>
       <c r="N11">
-        <v>70.098354</v>
+        <v>73.216279</v>
       </c>
       <c r="O11">
-        <v>0.309871934746458</v>
+        <v>0.2534005998333714</v>
       </c>
       <c r="P11">
-        <v>0.309871934746458</v>
+        <v>0.2534005998333715</v>
       </c>
       <c r="Q11">
-        <v>85.960217331826</v>
+        <v>89.78366674726212</v>
       </c>
       <c r="R11">
-        <v>773.641955986434</v>
+        <v>808.0530007253591</v>
       </c>
       <c r="S11">
-        <v>0.03316288910498272</v>
+        <v>0.02260894059613623</v>
       </c>
       <c r="T11">
-        <v>0.03316288910498272</v>
+        <v>0.02260894059613624</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>11.036521</v>
       </c>
       <c r="I12">
-        <v>0.1070212735855447</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="J12">
-        <v>0.1070212735855447</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.480710666666667</v>
+        <v>9.584614333333333</v>
       </c>
       <c r="N12">
-        <v>25.442132</v>
+        <v>28.753843</v>
       </c>
       <c r="O12">
-        <v>0.112467728798807</v>
+        <v>0.09951668076049845</v>
       </c>
       <c r="P12">
-        <v>0.1124677287988071</v>
+        <v>0.09951668076049851</v>
       </c>
       <c r="Q12">
-        <v>31.19918045586356</v>
+        <v>35.26026578891145</v>
       </c>
       <c r="R12">
-        <v>280.792624102772</v>
+        <v>317.342392100203</v>
       </c>
       <c r="S12">
-        <v>0.01203643957332197</v>
+        <v>0.008879089967104549</v>
       </c>
       <c r="T12">
-        <v>0.01203643957332197</v>
+        <v>0.008879089967104554</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>11.036521</v>
       </c>
       <c r="I13">
-        <v>0.1070212735855447</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="J13">
-        <v>0.1070212735855447</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.739333</v>
+        <v>13.11578266666667</v>
       </c>
       <c r="N13">
-        <v>32.217999</v>
+        <v>39.347348</v>
       </c>
       <c r="O13">
-        <v>0.1424206577488174</v>
+        <v>0.1361806653005735</v>
       </c>
       <c r="P13">
-        <v>0.1424206577488175</v>
+        <v>0.1361806653005735</v>
       </c>
       <c r="Q13">
-        <v>39.50829139349767</v>
+        <v>48.25087027736756</v>
       </c>
       <c r="R13">
-        <v>355.574622541479</v>
+        <v>434.2578324963081</v>
       </c>
       <c r="S13">
-        <v>0.01524204017716941</v>
+        <v>0.01215032866594463</v>
       </c>
       <c r="T13">
-        <v>0.01524204017716941</v>
+        <v>0.01215032866594463</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.448480333333334</v>
+        <v>11.57662933333333</v>
       </c>
       <c r="H14">
-        <v>28.345441</v>
+        <v>34.729888</v>
       </c>
       <c r="I14">
-        <v>0.2748660738437335</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="J14">
-        <v>0.2748660738437334</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.175664333333334</v>
+        <v>12.89086466666667</v>
       </c>
       <c r="N14">
-        <v>9.526993000000001</v>
+        <v>38.672594</v>
       </c>
       <c r="O14">
-        <v>0.04211436624069607</v>
+        <v>0.1338453503859769</v>
       </c>
       <c r="P14">
-        <v>0.04211436624069607</v>
+        <v>0.1338453503859769</v>
       </c>
       <c r="Q14">
-        <v>30.00520199876812</v>
+        <v>149.2327620321636</v>
       </c>
       <c r="R14">
-        <v>270.0468179889131</v>
+        <v>1343.094858289472</v>
       </c>
       <c r="S14">
-        <v>0.0115758105009972</v>
+        <v>0.03757915859329066</v>
       </c>
       <c r="T14">
-        <v>0.0115758105009972</v>
+        <v>0.03757915859329069</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.448480333333334</v>
+        <v>11.57662933333333</v>
       </c>
       <c r="H15">
-        <v>28.345441</v>
+        <v>34.729888</v>
       </c>
       <c r="I15">
-        <v>0.2748660738437335</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="J15">
-        <v>0.2748660738437334</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>19.658112</v>
       </c>
       <c r="N15">
-        <v>58.97433599999999</v>
+        <v>58.974336</v>
       </c>
       <c r="O15">
-        <v>0.2606978702625127</v>
+        <v>0.2041094183053852</v>
       </c>
       <c r="P15">
-        <v>0.2606978702625127</v>
+        <v>0.2041094183053853</v>
       </c>
       <c r="Q15">
-        <v>185.739284622464</v>
+        <v>227.574676017152</v>
       </c>
       <c r="R15">
-        <v>1671.653561602176</v>
+        <v>2048.172084154368</v>
       </c>
       <c r="S15">
-        <v>0.07165700005847986</v>
+        <v>0.05730688573613683</v>
       </c>
       <c r="T15">
-        <v>0.07165700005847984</v>
+        <v>0.05730688573613686</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.448480333333334</v>
+        <v>11.57662933333333</v>
       </c>
       <c r="H16">
-        <v>28.345441</v>
+        <v>34.729888</v>
       </c>
       <c r="I16">
-        <v>0.2748660738437335</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="J16">
-        <v>0.2748660738437334</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.985787333333333</v>
+        <v>16.656836</v>
       </c>
       <c r="N16">
-        <v>29.957362</v>
+        <v>49.970508</v>
       </c>
       <c r="O16">
-        <v>0.1324274422027088</v>
+        <v>0.1729472854141944</v>
       </c>
       <c r="P16">
-        <v>0.1324274422027088</v>
+        <v>0.1729472854141944</v>
       </c>
       <c r="Q16">
-        <v>94.35051523184912</v>
+        <v>192.8300162381227</v>
       </c>
       <c r="R16">
-        <v>849.154637086642</v>
+        <v>1735.470146143104</v>
       </c>
       <c r="S16">
-        <v>0.0363998111074265</v>
+        <v>0.04855763347861538</v>
       </c>
       <c r="T16">
-        <v>0.03639981110742649</v>
+        <v>0.04855763347861539</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.448480333333334</v>
+        <v>11.57662933333333</v>
       </c>
       <c r="H17">
-        <v>28.345441</v>
+        <v>34.729888</v>
       </c>
       <c r="I17">
-        <v>0.2748660738437335</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="J17">
-        <v>0.2748660738437334</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.366118</v>
+        <v>24.40542633333333</v>
       </c>
       <c r="N17">
-        <v>70.098354</v>
+        <v>73.216279</v>
       </c>
       <c r="O17">
-        <v>0.309871934746458</v>
+        <v>0.2534005998333714</v>
       </c>
       <c r="P17">
-        <v>0.309871934746458</v>
+        <v>0.2534005998333715</v>
       </c>
       <c r="Q17">
-        <v>220.774306389346</v>
+        <v>282.5325743829725</v>
       </c>
       <c r="R17">
-        <v>1986.968757504114</v>
+        <v>2542.793169446752</v>
       </c>
       <c r="S17">
-        <v>0.08517328209812047</v>
+        <v>0.07114614965191156</v>
       </c>
       <c r="T17">
-        <v>0.08517328209812047</v>
+        <v>0.07114614965191157</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.448480333333334</v>
+        <v>11.57662933333333</v>
       </c>
       <c r="H18">
-        <v>28.345441</v>
+        <v>34.729888</v>
       </c>
       <c r="I18">
-        <v>0.2748660738437335</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="J18">
-        <v>0.2748660738437334</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.480710666666667</v>
+        <v>9.584614333333333</v>
       </c>
       <c r="N18">
-        <v>25.442132</v>
+        <v>28.753843</v>
       </c>
       <c r="O18">
-        <v>0.112467728798807</v>
+        <v>0.09951668076049845</v>
       </c>
       <c r="P18">
-        <v>0.1124677287988071</v>
+        <v>0.09951668076049851</v>
       </c>
       <c r="Q18">
-        <v>80.12982794669023</v>
+        <v>110.9575274399538</v>
       </c>
       <c r="R18">
-        <v>721.1684515202121</v>
+        <v>998.6177469595841</v>
       </c>
       <c r="S18">
-        <v>0.03091356304904988</v>
+        <v>0.0279408520220697</v>
       </c>
       <c r="T18">
-        <v>0.03091356304904988</v>
+        <v>0.02794085202206972</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.448480333333334</v>
+        <v>11.57662933333333</v>
       </c>
       <c r="H19">
-        <v>28.345441</v>
+        <v>34.729888</v>
       </c>
       <c r="I19">
-        <v>0.2748660738437335</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="J19">
-        <v>0.2748660738437334</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.739333</v>
+        <v>13.11578266666667</v>
       </c>
       <c r="N19">
-        <v>32.217999</v>
+        <v>39.347348</v>
       </c>
       <c r="O19">
-        <v>0.1424206577488174</v>
+        <v>0.1361806653005735</v>
       </c>
       <c r="P19">
-        <v>0.1424206577488175</v>
+        <v>0.1361806653005735</v>
       </c>
       <c r="Q19">
-        <v>101.4703766436177</v>
+        <v>151.8365543485583</v>
       </c>
       <c r="R19">
-        <v>913.233389792559</v>
+        <v>1366.528989137024</v>
       </c>
       <c r="S19">
-        <v>0.03914660702965954</v>
+        <v>0.03823483448556356</v>
       </c>
       <c r="T19">
-        <v>0.03914660702965954</v>
+        <v>0.03823483448556358</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.173862333333333</v>
+        <v>1.128953</v>
       </c>
       <c r="H20">
-        <v>6.521586999999999</v>
+        <v>3.386859</v>
       </c>
       <c r="I20">
-        <v>0.06323990563139702</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="J20">
-        <v>0.063239905631397</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.175664333333334</v>
+        <v>12.89086466666667</v>
       </c>
       <c r="N20">
-        <v>9.526993000000001</v>
+        <v>38.672594</v>
       </c>
       <c r="O20">
-        <v>0.04211436624069607</v>
+        <v>0.1338453503859769</v>
       </c>
       <c r="P20">
-        <v>0.04211436624069607</v>
+        <v>0.1338453503859769</v>
       </c>
       <c r="Q20">
-        <v>6.903457077543444</v>
+        <v>14.55318033802734</v>
       </c>
       <c r="R20">
-        <v>62.131113697891</v>
+        <v>130.978623042246</v>
       </c>
       <c r="S20">
-        <v>0.002663308546787712</v>
+        <v>0.003664719894694559</v>
       </c>
       <c r="T20">
-        <v>0.002663308546787712</v>
+        <v>0.003664719894694561</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.173862333333333</v>
+        <v>1.128953</v>
       </c>
       <c r="H21">
-        <v>6.521586999999999</v>
+        <v>3.386859</v>
       </c>
       <c r="I21">
-        <v>0.06323990563139702</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="J21">
-        <v>0.063239905631397</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>19.658112</v>
       </c>
       <c r="N21">
-        <v>58.97433599999999</v>
+        <v>58.974336</v>
       </c>
       <c r="O21">
-        <v>0.2606978702625127</v>
+        <v>0.2041094183053852</v>
       </c>
       <c r="P21">
-        <v>0.2606978702625127</v>
+        <v>0.2041094183053853</v>
       </c>
       <c r="Q21">
-        <v>42.73402922124799</v>
+        <v>22.193084516736</v>
       </c>
       <c r="R21">
-        <v>384.6062629912319</v>
+        <v>199.737760650624</v>
       </c>
       <c r="S21">
-        <v>0.01648650871370749</v>
+        <v>0.005588568028707914</v>
       </c>
       <c r="T21">
-        <v>0.01648650871370748</v>
+        <v>0.005588568028707917</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.173862333333333</v>
+        <v>1.128953</v>
       </c>
       <c r="H22">
-        <v>6.521586999999999</v>
+        <v>3.386859</v>
       </c>
       <c r="I22">
-        <v>0.06323990563139702</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="J22">
-        <v>0.063239905631397</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.985787333333333</v>
+        <v>16.656836</v>
       </c>
       <c r="N22">
-        <v>29.957362</v>
+        <v>49.970508</v>
       </c>
       <c r="O22">
-        <v>0.1324274422027088</v>
+        <v>0.1729472854141944</v>
       </c>
       <c r="P22">
-        <v>0.1324274422027088</v>
+        <v>0.1729472854141944</v>
       </c>
       <c r="Q22">
-        <v>21.70772695261044</v>
+        <v>18.804784972708</v>
       </c>
       <c r="R22">
-        <v>195.369542573494</v>
+        <v>169.243064754372</v>
       </c>
       <c r="S22">
-        <v>0.008374698947906585</v>
+        <v>0.004735340867374804</v>
       </c>
       <c r="T22">
-        <v>0.008374698947906583</v>
+        <v>0.004735340867374805</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.173862333333333</v>
+        <v>1.128953</v>
       </c>
       <c r="H23">
-        <v>6.521586999999999</v>
+        <v>3.386859</v>
       </c>
       <c r="I23">
-        <v>0.06323990563139702</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="J23">
-        <v>0.063239905631397</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.366118</v>
+        <v>24.40542633333333</v>
       </c>
       <c r="N23">
-        <v>70.098354</v>
+        <v>73.216279</v>
       </c>
       <c r="O23">
-        <v>0.309871934746458</v>
+        <v>0.2534005998333714</v>
       </c>
       <c r="P23">
-        <v>0.309871934746458</v>
+        <v>0.2534005998333715</v>
       </c>
       <c r="Q23">
-        <v>50.794723796422</v>
+        <v>27.55257927529567</v>
       </c>
       <c r="R23">
-        <v>457.152514167798</v>
+        <v>247.973213477661</v>
       </c>
       <c r="S23">
-        <v>0.01959627191118441</v>
+        <v>0.006938173174181371</v>
       </c>
       <c r="T23">
-        <v>0.01959627191118441</v>
+        <v>0.006938173174181373</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.173862333333333</v>
+        <v>1.128953</v>
       </c>
       <c r="H24">
-        <v>6.521586999999999</v>
+        <v>3.386859</v>
       </c>
       <c r="I24">
-        <v>0.06323990563139702</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="J24">
-        <v>0.063239905631397</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.480710666666667</v>
+        <v>9.584614333333333</v>
       </c>
       <c r="N24">
-        <v>25.442132</v>
+        <v>28.753843</v>
       </c>
       <c r="O24">
-        <v>0.112467728798807</v>
+        <v>0.09951668076049845</v>
       </c>
       <c r="P24">
-        <v>0.1124677287988071</v>
+        <v>0.09951668076049851</v>
       </c>
       <c r="Q24">
-        <v>18.43589747816489</v>
+        <v>10.82057910545967</v>
       </c>
       <c r="R24">
-        <v>165.923077303484</v>
+        <v>97.385211949137</v>
       </c>
       <c r="S24">
-        <v>0.00711244855581411</v>
+        <v>0.002724792148440414</v>
       </c>
       <c r="T24">
-        <v>0.007112448555814109</v>
+        <v>0.002724792148440416</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.173862333333333</v>
+        <v>1.128953</v>
       </c>
       <c r="H25">
-        <v>6.521586999999999</v>
+        <v>3.386859</v>
       </c>
       <c r="I25">
-        <v>0.06323990563139702</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="J25">
-        <v>0.063239905631397</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.739333</v>
+        <v>13.11578266666667</v>
       </c>
       <c r="N25">
-        <v>32.217999</v>
+        <v>39.347348</v>
       </c>
       <c r="O25">
-        <v>0.1424206577488174</v>
+        <v>0.1361806653005735</v>
       </c>
       <c r="P25">
-        <v>0.1424206577488175</v>
+        <v>0.1361806653005735</v>
       </c>
       <c r="Q25">
-        <v>23.34583149382366</v>
+        <v>14.80710218888134</v>
       </c>
       <c r="R25">
-        <v>210.112483444413</v>
+        <v>133.263919699932</v>
       </c>
       <c r="S25">
-        <v>0.009006668955996706</v>
+        <v>0.003728661413792676</v>
       </c>
       <c r="T25">
-        <v>0.009006668955996706</v>
+        <v>0.003728661413792678</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.740567333333333</v>
+        <v>3.801177666666666</v>
       </c>
       <c r="H26">
-        <v>11.221702</v>
+        <v>11.403533</v>
       </c>
       <c r="I26">
-        <v>0.1088169759145526</v>
+        <v>0.09218914854523422</v>
       </c>
       <c r="J26">
-        <v>0.1088169759145526</v>
+        <v>0.09218914854523422</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.175664333333334</v>
+        <v>12.89086466666667</v>
       </c>
       <c r="N26">
-        <v>9.526993000000001</v>
+        <v>38.672594</v>
       </c>
       <c r="O26">
-        <v>0.04211436624069607</v>
+        <v>0.1338453503859769</v>
       </c>
       <c r="P26">
-        <v>0.04211436624069607</v>
+        <v>0.1338453503859769</v>
       </c>
       <c r="Q26">
-        <v>11.87878626689845</v>
+        <v>49.00046687495578</v>
       </c>
       <c r="R26">
-        <v>106.909076402086</v>
+        <v>441.004201874602</v>
       </c>
       <c r="S26">
-        <v>0.00458275797687047</v>
+        <v>0.01233908888882174</v>
       </c>
       <c r="T26">
-        <v>0.004582757976870471</v>
+        <v>0.01233908888882175</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.740567333333333</v>
+        <v>3.801177666666666</v>
       </c>
       <c r="H27">
-        <v>11.221702</v>
+        <v>11.403533</v>
       </c>
       <c r="I27">
-        <v>0.1088169759145526</v>
+        <v>0.09218914854523422</v>
       </c>
       <c r="J27">
-        <v>0.1088169759145526</v>
+        <v>0.09218914854523422</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>19.658112</v>
       </c>
       <c r="N27">
-        <v>58.97433599999999</v>
+        <v>58.974336</v>
       </c>
       <c r="O27">
-        <v>0.2606978702625127</v>
+        <v>0.2041094183053852</v>
       </c>
       <c r="P27">
-        <v>0.2606978702625127</v>
+        <v>0.2041094183053853</v>
       </c>
       <c r="Q27">
-        <v>73.532491582208</v>
+        <v>74.72397630323199</v>
       </c>
       <c r="R27">
-        <v>661.7924242398719</v>
+        <v>672.5157867290879</v>
       </c>
       <c r="S27">
-        <v>0.02836835386933099</v>
+        <v>0.0188166734836365</v>
       </c>
       <c r="T27">
-        <v>0.02836835386933099</v>
+        <v>0.01881667348363651</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.740567333333333</v>
+        <v>3.801177666666666</v>
       </c>
       <c r="H28">
-        <v>11.221702</v>
+        <v>11.403533</v>
       </c>
       <c r="I28">
-        <v>0.1088169759145526</v>
+        <v>0.09218914854523422</v>
       </c>
       <c r="J28">
-        <v>0.1088169759145526</v>
+        <v>0.09218914854523422</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.985787333333333</v>
+        <v>16.656836</v>
       </c>
       <c r="N28">
-        <v>29.957362</v>
+        <v>49.970508</v>
       </c>
       <c r="O28">
-        <v>0.1324274422027088</v>
+        <v>0.1729472854141944</v>
       </c>
       <c r="P28">
-        <v>0.1324274422027088</v>
+        <v>0.1729472854141944</v>
       </c>
       <c r="Q28">
-        <v>37.35250989668044</v>
+        <v>63.31559300052933</v>
       </c>
       <c r="R28">
-        <v>336.172589070124</v>
+        <v>569.840337004764</v>
       </c>
       <c r="S28">
-        <v>0.01441035378859796</v>
+        <v>0.01594386298554418</v>
       </c>
       <c r="T28">
-        <v>0.01441035378859796</v>
+        <v>0.01594386298554419</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.740567333333333</v>
+        <v>3.801177666666666</v>
       </c>
       <c r="H29">
-        <v>11.221702</v>
+        <v>11.403533</v>
       </c>
       <c r="I29">
-        <v>0.1088169759145526</v>
+        <v>0.09218914854523422</v>
       </c>
       <c r="J29">
-        <v>0.1088169759145526</v>
+        <v>0.09218914854523422</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.366118</v>
+        <v>24.40542633333333</v>
       </c>
       <c r="N29">
-        <v>70.098354</v>
+        <v>73.216279</v>
       </c>
       <c r="O29">
-        <v>0.309871934746458</v>
+        <v>0.2534005998333714</v>
       </c>
       <c r="P29">
-        <v>0.309871934746458</v>
+        <v>0.2534005998333715</v>
       </c>
       <c r="Q29">
-        <v>87.402537697612</v>
+        <v>92.76936152374522</v>
       </c>
       <c r="R29">
-        <v>786.6228392785081</v>
+        <v>834.924253713707</v>
       </c>
       <c r="S29">
-        <v>0.03371932685990112</v>
+        <v>0.02336078553949013</v>
       </c>
       <c r="T29">
-        <v>0.03371932685990113</v>
+        <v>0.02336078553949014</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.740567333333333</v>
+        <v>3.801177666666666</v>
       </c>
       <c r="H30">
-        <v>11.221702</v>
+        <v>11.403533</v>
       </c>
       <c r="I30">
-        <v>0.1088169759145526</v>
+        <v>0.09218914854523422</v>
       </c>
       <c r="J30">
-        <v>0.1088169759145526</v>
+        <v>0.09218914854523422</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.480710666666667</v>
+        <v>9.584614333333333</v>
       </c>
       <c r="N30">
-        <v>25.442132</v>
+        <v>28.753843</v>
       </c>
       <c r="O30">
-        <v>0.112467728798807</v>
+        <v>0.09951668076049845</v>
       </c>
       <c r="P30">
-        <v>0.1124677287988071</v>
+        <v>0.09951668076049851</v>
       </c>
       <c r="Q30">
-        <v>31.72266928318489</v>
+        <v>36.43282194747988</v>
       </c>
       <c r="R30">
-        <v>285.504023548664</v>
+        <v>327.895397527319</v>
       </c>
       <c r="S30">
-        <v>0.01223839813586422</v>
+        <v>0.009174358065358244</v>
       </c>
       <c r="T30">
-        <v>0.01223839813586422</v>
+        <v>0.009174358065358249</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.740567333333333</v>
+        <v>3.801177666666666</v>
       </c>
       <c r="H31">
-        <v>11.221702</v>
+        <v>11.403533</v>
       </c>
       <c r="I31">
-        <v>0.1088169759145526</v>
+        <v>0.09218914854523422</v>
       </c>
       <c r="J31">
-        <v>0.1088169759145526</v>
+        <v>0.09218914854523422</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.739333</v>
+        <v>13.11578266666667</v>
       </c>
       <c r="N31">
-        <v>32.217999</v>
+        <v>39.347348</v>
       </c>
       <c r="O31">
-        <v>0.1424206577488174</v>
+        <v>0.1361806653005735</v>
       </c>
       <c r="P31">
-        <v>0.1424206577488175</v>
+        <v>0.1361806653005735</v>
       </c>
       <c r="Q31">
-        <v>40.17119820158867</v>
+        <v>49.85542015338712</v>
       </c>
       <c r="R31">
-        <v>361.540783814298</v>
+        <v>448.698781380484</v>
       </c>
       <c r="S31">
-        <v>0.0154977852839878</v>
+        <v>0.01255437958238339</v>
       </c>
       <c r="T31">
-        <v>0.0154977852839878</v>
+        <v>0.0125543795823834</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>11.30319166666667</v>
+        <v>17.43941</v>
       </c>
       <c r="H32">
-        <v>33.909575</v>
+        <v>52.31823</v>
       </c>
       <c r="I32">
-        <v>0.328821546504061</v>
+        <v>0.4229542789145898</v>
       </c>
       <c r="J32">
-        <v>0.328821546504061</v>
+        <v>0.4229542789145898</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.175664333333334</v>
+        <v>12.89086466666667</v>
       </c>
       <c r="N32">
-        <v>9.526993000000001</v>
+        <v>38.672594</v>
       </c>
       <c r="O32">
-        <v>0.04211436624069607</v>
+        <v>0.1338453503859769</v>
       </c>
       <c r="P32">
-        <v>0.04211436624069607</v>
+        <v>0.1338453503859769</v>
       </c>
       <c r="Q32">
-        <v>35.8951426286639</v>
+        <v>224.8090741765133</v>
       </c>
       <c r="R32">
-        <v>323.0562836579751</v>
+        <v>2023.28166758862</v>
       </c>
       <c r="S32">
-        <v>0.0138481110373041</v>
+        <v>0.05661046365857146</v>
       </c>
       <c r="T32">
-        <v>0.0138481110373041</v>
+        <v>0.0566104636585715</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>11.30319166666667</v>
+        <v>17.43941</v>
       </c>
       <c r="H33">
-        <v>33.909575</v>
+        <v>52.31823</v>
       </c>
       <c r="I33">
-        <v>0.328821546504061</v>
+        <v>0.4229542789145898</v>
       </c>
       <c r="J33">
-        <v>0.328821546504061</v>
+        <v>0.4229542789145898</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>19.658112</v>
       </c>
       <c r="N33">
-        <v>58.97433599999999</v>
+        <v>58.974336</v>
       </c>
       <c r="O33">
-        <v>0.2606978702625127</v>
+        <v>0.2041094183053852</v>
       </c>
       <c r="P33">
-        <v>0.2606978702625127</v>
+        <v>0.2041094183053853</v>
       </c>
       <c r="Q33">
-        <v>222.1994077408</v>
+        <v>342.82587499392</v>
       </c>
       <c r="R33">
-        <v>1999.7946696672</v>
+        <v>3085.43287494528</v>
       </c>
       <c r="S33">
-        <v>0.08572307687003448</v>
+        <v>0.08632895183903057</v>
       </c>
       <c r="T33">
-        <v>0.08572307687003447</v>
+        <v>0.08632895183903061</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>11.30319166666667</v>
+        <v>17.43941</v>
       </c>
       <c r="H34">
-        <v>33.909575</v>
+        <v>52.31823</v>
       </c>
       <c r="I34">
-        <v>0.328821546504061</v>
+        <v>0.4229542789145898</v>
       </c>
       <c r="J34">
-        <v>0.328821546504061</v>
+        <v>0.4229542789145898</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>9.985787333333333</v>
+        <v>16.656836</v>
       </c>
       <c r="N34">
-        <v>29.957362</v>
+        <v>49.970508</v>
       </c>
       <c r="O34">
-        <v>0.1324274422027088</v>
+        <v>0.1729472854141944</v>
       </c>
       <c r="P34">
-        <v>0.1324274422027088</v>
+        <v>0.1729472854141944</v>
       </c>
       <c r="Q34">
-        <v>112.8712681712389</v>
+        <v>290.48539230676</v>
       </c>
       <c r="R34">
-        <v>1015.84141354115</v>
+        <v>2614.36853076084</v>
       </c>
       <c r="S34">
-        <v>0.04354499634467186</v>
+        <v>0.07314879439259633</v>
       </c>
       <c r="T34">
-        <v>0.04354499634467185</v>
+        <v>0.07314879439259636</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>11.30319166666667</v>
+        <v>17.43941</v>
       </c>
       <c r="H35">
-        <v>33.909575</v>
+        <v>52.31823</v>
       </c>
       <c r="I35">
-        <v>0.328821546504061</v>
+        <v>0.4229542789145898</v>
       </c>
       <c r="J35">
-        <v>0.328821546504061</v>
+        <v>0.4229542789145898</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.366118</v>
+        <v>24.40542633333333</v>
       </c>
       <c r="N35">
-        <v>70.098354</v>
+        <v>73.216279</v>
       </c>
       <c r="O35">
-        <v>0.309871934746458</v>
+        <v>0.2534005998333714</v>
       </c>
       <c r="P35">
-        <v>0.309871934746458</v>
+        <v>0.2534005998333715</v>
       </c>
       <c r="Q35">
-        <v>264.11171025995</v>
+        <v>425.6162360517966</v>
       </c>
       <c r="R35">
-        <v>2377.00539233955</v>
+        <v>3830.54612446617</v>
       </c>
       <c r="S35">
-        <v>0.1018925688015358</v>
+        <v>0.1071768679790481</v>
       </c>
       <c r="T35">
-        <v>0.1018925688015358</v>
+        <v>0.1071768679790482</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>11.30319166666667</v>
+        <v>17.43941</v>
       </c>
       <c r="H36">
-        <v>33.909575</v>
+        <v>52.31823</v>
       </c>
       <c r="I36">
-        <v>0.328821546504061</v>
+        <v>0.4229542789145898</v>
       </c>
       <c r="J36">
-        <v>0.328821546504061</v>
+        <v>0.4229542789145898</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.480710666666667</v>
+        <v>9.584614333333333</v>
       </c>
       <c r="N36">
-        <v>25.442132</v>
+        <v>28.753843</v>
       </c>
       <c r="O36">
-        <v>0.112467728798807</v>
+        <v>0.09951668076049845</v>
       </c>
       <c r="P36">
-        <v>0.1124677287988071</v>
+        <v>0.09951668076049851</v>
       </c>
       <c r="Q36">
-        <v>95.8590981348778</v>
+        <v>167.1500190508766</v>
       </c>
       <c r="R36">
-        <v>862.7318832139001</v>
+        <v>1504.35017145789</v>
       </c>
       <c r="S36">
-        <v>0.03698181251542305</v>
+        <v>0.04209100595103005</v>
       </c>
       <c r="T36">
-        <v>0.03698181251542305</v>
+        <v>0.04209100595103008</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>11.30319166666667</v>
+        <v>17.43941</v>
       </c>
       <c r="H37">
-        <v>33.909575</v>
+        <v>52.31823</v>
       </c>
       <c r="I37">
-        <v>0.328821546504061</v>
+        <v>0.4229542789145898</v>
       </c>
       <c r="J37">
-        <v>0.328821546504061</v>
+        <v>0.4229542789145898</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>10.739333</v>
+        <v>13.11578266666667</v>
       </c>
       <c r="N37">
-        <v>32.217999</v>
+        <v>39.347348</v>
       </c>
       <c r="O37">
-        <v>0.1424206577488174</v>
+        <v>0.1361806653005735</v>
       </c>
       <c r="P37">
-        <v>0.1424206577488175</v>
+        <v>0.1361806653005735</v>
       </c>
       <c r="Q37">
-        <v>121.3887392711584</v>
+        <v>228.7315113948933</v>
       </c>
       <c r="R37">
-        <v>1092.498653440425</v>
+        <v>2058.58360255404</v>
       </c>
       <c r="S37">
-        <v>0.04683098093509173</v>
+        <v>0.05759819509431316</v>
       </c>
       <c r="T37">
-        <v>0.04683098093509173</v>
+        <v>0.05759819509431319</v>
       </c>
     </row>
   </sheetData>
